--- a/Source/Data/Data for Coding.xlsx
+++ b/Source/Data/Data for Coding.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KLTN_DU\Source\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KLTN_DUU\Source\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C8862F-A76B-49A5-8D06-9E7AFEE7D655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09480829-3F85-4042-85E2-3FD8BF195A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="217">
   <si>
     <t>No.</t>
   </si>
@@ -684,6 +684,12 @@
   </si>
   <si>
     <t>loại</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Tổng số cẩu cảng có thể sử dụng</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1350,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1670,10 +1676,18 @@
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="43"/>
+      <c r="A22" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="52">
+        <v>6</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>161</v>
+      </c>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" ht="18.75" customHeight="1">

--- a/Source/Data/Data for Coding.xlsx
+++ b/Source/Data/Data for Coding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KLTN_DUU\Source\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE83610-B8D4-480E-9EAD-59D8788D11D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B472DB2-76A0-41AA-8E16-E61672CC0DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Variables" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="265">
   <si>
     <t>No.</t>
   </si>
@@ -813,6 +813,30 @@
   <si>
     <t>Date</t>
   </si>
+  <si>
+    <t>k1</t>
+  </si>
+  <si>
+    <t>k2</t>
+  </si>
+  <si>
+    <t>k3</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>lambda1</t>
+  </si>
+  <si>
+    <t>lambda2</t>
+  </si>
+  <si>
+    <t>lambda3</t>
+  </si>
 </sst>
 </file>
 
@@ -1033,7 +1057,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1229,6 +1253,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1536,15 +1563,15 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="45" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="49" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
   </cols>
@@ -1878,58 +1905,90 @@
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A23" s="21"/>
+      <c r="A23" s="73" t="s">
+        <v>257</v>
+      </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="64"/>
+      <c r="C23" s="64">
+        <v>1000</v>
+      </c>
       <c r="D23" s="43"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A24" s="21"/>
+      <c r="A24" s="73" t="s">
+        <v>258</v>
+      </c>
       <c r="B24" s="21"/>
-      <c r="C24" s="64"/>
+      <c r="C24" s="64">
+        <v>1</v>
+      </c>
       <c r="D24" s="43"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A25" s="21"/>
+      <c r="A25" s="73" t="s">
+        <v>259</v>
+      </c>
       <c r="B25" s="21"/>
-      <c r="C25" s="64"/>
+      <c r="C25" s="64">
+        <v>1</v>
+      </c>
       <c r="D25" s="43"/>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A26" s="21"/>
+      <c r="A26" s="73" t="s">
+        <v>260</v>
+      </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="64"/>
+      <c r="C26" s="64">
+        <v>1000</v>
+      </c>
       <c r="D26" s="43"/>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A27" s="21"/>
+      <c r="A27" s="73" t="s">
+        <v>261</v>
+      </c>
       <c r="B27" s="21"/>
-      <c r="C27" s="64"/>
+      <c r="C27" s="64">
+        <v>1500</v>
+      </c>
       <c r="D27" s="43"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A28" s="21"/>
+      <c r="A28" s="73" t="s">
+        <v>262</v>
+      </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="64"/>
+      <c r="C28" s="64">
+        <v>1E-4</v>
+      </c>
       <c r="D28" s="43"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A29" s="21"/>
+      <c r="A29" s="73" t="s">
+        <v>263</v>
+      </c>
       <c r="B29" s="21"/>
-      <c r="C29" s="64"/>
+      <c r="C29" s="64">
+        <v>1</v>
+      </c>
       <c r="D29" s="43"/>
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A30" s="21"/>
+      <c r="A30" s="73" t="s">
+        <v>264</v>
+      </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="64"/>
+      <c r="C30" s="64">
+        <v>0.1</v>
+      </c>
       <c r="D30" s="43"/>
       <c r="E30" s="6"/>
     </row>
@@ -8725,6 +8784,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -36619,7 +36679,7 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
